--- a/remplacements_v5_v6.xlsx
+++ b/remplacements_v5_v6.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\z_DONNEES\Computree_v6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Z_Prog\computreev6\computreev6\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE4D600-30AF-45F2-9F57-E8BCCBD5888B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>v5</t>
   </si>
@@ -32,12 +33,6 @@
     <t>v6</t>
   </si>
   <si>
-    <t>#include "ct_log/ct_logmanager.h"</t>
-  </si>
-  <si>
-    <t>#include "ct_global/ct_context.h"</t>
-  </si>
-  <si>
     <t>#include "ct_view/ct_stepconfigurabledialog.h"</t>
   </si>
   <si>
@@ -56,21 +51,12 @@
     <t>#include "ct_result/model/outModel/tools/ct_outresultmodelgrouptocopypossibilities.h"</t>
   </si>
   <si>
-    <t>#include "ct_tools/model/ct_autorenamemodels.h</t>
-  </si>
-  <si>
     <t>CT_VirtualAbstractStep* createNewInstance() const final;</t>
   </si>
   <si>
     <t>CT_VirtualAbstractStep* createNewInstance(CT_StepInitializeData &amp;dataInit);</t>
   </si>
   <si>
-    <t>::createNewInstance(CT_StepInitializeData &amp;dataInit)</t>
-  </si>
-  <si>
-    <t>::createNewInstance() const</t>
-  </si>
-  <si>
     <t>(dataInit)</t>
   </si>
   <si>
@@ -86,36 +72,9 @@
     <t>(CT_StepInitializeData &amp;dataInit)</t>
   </si>
   <si>
-    <t xml:space="preserve"> : CT_AbstractStep(dataInit)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> : SuperClass()</t>
   </si>
   <si>
-    <t>/*! \brief Input results specification
-     *
-     * Specification of input results models needed by the step (IN)
-     */</t>
-  </si>
-  <si>
-    <t>/*! \brief Parameters DialogBox
-     *
-     * DialogBox asking for step parameters
-     */</t>
-  </si>
-  <si>
-    <t>/*! \brief Output results specification
-     *
-     * Specification of output results models created by the step (OUT)
-     */</t>
-  </si>
-  <si>
-    <t>/*! \brief Algorithm of the step
-     *
-     * Step computation, using input results, and creating output results
-     */</t>
-  </si>
-  <si>
     <t>void createInResultModelListProtected();</t>
   </si>
   <si>
@@ -164,9 +123,6 @@
     <t>configDialog-&gt;</t>
   </si>
   <si>
-    <t>preInputConfigDialog-&gt;</t>
-  </si>
-  <si>
     <t>1e+10</t>
   </si>
   <si>
@@ -174,12 +130,54 @@
   </si>
   <si>
     <t>-&gt;getPointCloudIndex(</t>
+  </si>
+  <si>
+    <t>createNewInstance()</t>
+  </si>
+  <si>
+    <t>createNewInstance() const</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : CT_AbstractStep()</t>
+  </si>
+  <si>
+    <t>void createPreConfigurationDialog();</t>
+  </si>
+  <si>
+    <t>::createPreConfigurationDialog()</t>
+  </si>
+  <si>
+    <t>::fillPostInputConfigurationDialog(CT_StepConfigurableDialog* postInputConfigDialog)</t>
+  </si>
+  <si>
+    <t>void fillPostInputConfigurationDialog(CT_StepConfigurableDialog* postInputConfigDialog) final;</t>
+  </si>
+  <si>
+    <t>postInputConfigDialog-&gt;</t>
+  </si>
+  <si>
+    <t>-&gt;pointCloudIndex(</t>
+  </si>
+  <si>
+    <t>// Inclusion of standard result class</t>
+  </si>
+  <si>
+    <t>#include "ct_result/ct_resultgroup.h"</t>
+  </si>
+  <si>
+    <t>#include "ct_tools/model/ct_autorenamemodels.h"</t>
+  </si>
+  <si>
+    <t>detailledDescription</t>
+  </si>
+  <si>
+    <t>getStepDetailledDescription</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -509,11 +507,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -531,180 +529,179 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="57" customHeight="1"/>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
-        <v>17</v>
+      <c r="A14" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="60">
-      <c r="A18" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="60">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
-        <v>26</v>
+      <c r="A20" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>42</v>
@@ -712,15 +709,26 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/remplacements_v5_v6.xlsx
+++ b/remplacements_v5_v6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Z_Prog\computreev6\computreev6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE4D600-30AF-45F2-9F57-E8BCCBD5888B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E17A1F-1295-4748-AEBB-1C29FCDA317D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>v5</t>
   </si>
@@ -172,6 +172,48 @@
   </si>
   <si>
     <t>getStepDetailledDescription</t>
+  </si>
+  <si>
+    <t>getCenterX()</t>
+  </si>
+  <si>
+    <t>centerX()</t>
+  </si>
+  <si>
+    <t>getCenterY()</t>
+  </si>
+  <si>
+    <t>centerY()</t>
+  </si>
+  <si>
+    <t>getCenterZ()</t>
+  </si>
+  <si>
+    <t>centerZ()</t>
+  </si>
+  <si>
+    <t>getPointCloudIndexRegistered()</t>
+  </si>
+  <si>
+    <t>pointCloudIndexRegistered()</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>nullptr</t>
+  </si>
+  <si>
+    <t>#include "ct_pointcloudindex/ct_pointcloudindexvector.h"</t>
+  </si>
+  <si>
+    <t>#include "ct_iterator/ct_pointiterator.h"</t>
+  </si>
+  <si>
+    <t>getBoundingBox</t>
+  </si>
+  <si>
+    <t>boundingBox</t>
   </si>
 </sst>
 </file>
@@ -508,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -578,157 +620,215 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="57" customHeight="1"/>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="57" customHeight="1"/>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="5" t="s">
-        <v>12</v>
+      <c r="A17" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="4" t="s">
-        <v>16</v>
+      <c r="A19" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
+      <c r="A21" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/remplacements_v5_v6.xlsx
+++ b/remplacements_v5_v6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Z_Prog\computreev6\computreev6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E17A1F-1295-4748-AEBB-1C29FCDA317D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37659385-996F-4990-91F3-708666FD20B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>v5</t>
   </si>
@@ -214,6 +214,15 @@
   </si>
   <si>
     <t>boundingBox</t>
+  </si>
+  <si>
+    <t>// Utilise le depot</t>
+  </si>
+  <si>
+    <t>#include "ct_global/ct_context.h"</t>
+  </si>
+  <si>
+    <t>#include &lt;limits&gt;</t>
   </si>
 </sst>
 </file>
@@ -550,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -630,204 +639,219 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="57" customHeight="1"/>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="57" customHeight="1"/>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="3" t="s">
-        <v>28</v>
+      <c r="A28" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="3" t="s">
-        <v>31</v>
+      <c r="A30" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>62</v>
       </c>
     </row>

--- a/remplacements_v5_v6.xlsx
+++ b/remplacements_v5_v6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Z_Prog\computreev6\computreev6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37659385-996F-4990-91F3-708666FD20B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFFA30C-7A74-4F16-AF58-7F926CC32A99}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
   <si>
     <t>v5</t>
   </si>
@@ -132,12 +132,6 @@
     <t>-&gt;getPointCloudIndex(</t>
   </si>
   <si>
-    <t>createNewInstance()</t>
-  </si>
-  <si>
-    <t>createNewInstance() const</t>
-  </si>
-  <si>
     <t xml:space="preserve"> : CT_AbstractStep()</t>
   </si>
   <si>
@@ -223,13 +217,88 @@
   </si>
   <si>
     <t>#include &lt;limits&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /\*! \\brief Step constructor\n     \* \n     \* Create a new instance of the step\n     \* \n     \* \\param dataInit Step parameters object\n     \*/</t>
+  </si>
+  <si>
+    <t>/\*! \\brief Step description\n     \* \n     \* Return a description of the step function\n     \*/</t>
+  </si>
+  <si>
+    <t>/\*! \\brief Step detailled description\n     \* \n     \* Return a detailled description of the step function\n     \*/</t>
+  </si>
+  <si>
+    <t>/\*! \\brief Step URL\n     \* \n     \* Return a URL of a wiki for this step\n     \*/</t>
+  </si>
+  <si>
+    <t>/\*! \\brief Step copy\n     \* \n     \* Step copy, used when a step is added by step contextual menu\n     \*/</t>
+  </si>
+  <si>
+    <t>/\*! \\brief Input results specification\n     \* \n     \* Specification of input results models needed by the step \(IN\)\n     \*/</t>
+  </si>
+  <si>
+    <t>/\*! \\brief Parameters DialogBox\n     \* \n     \* DialogBox asking for step parameters\n     \*/</t>
+  </si>
+  <si>
+    <t>/\*! \\brief Output results specification\n     \* \n     \* Specification of output results models created by the step \(OUT\)\n     \*/</t>
+  </si>
+  <si>
+    <t>/\*! \\brief Algorithm of the step\n     \* \n     \* Step computation, using input results, and creating output results\n     \*/</t>
+  </si>
+  <si>
+    <t>Q_OBJECT</t>
+  </si>
+  <si>
+    <t>Q_OBJECT\n    using SuperClass = CT_AbstractStep;</t>
+  </si>
+  <si>
+    <t>#define DEF.*\n</t>
+  </si>
+  <si>
+    <t>CT_AutoRenameModels.*;\n</t>
+  </si>
+  <si>
+    <t>// Alias for indexing models</t>
+  </si>
+  <si>
+    <t>#include "ct_iterator/ct_groupiterator.h"</t>
+  </si>
+  <si>
+    <t>#include "ct_iterator/ct_resultgroupiterator.h"</t>
+  </si>
+  <si>
+    <t>#include "ct_itemdrawable/tools/iterator/ct_groupiterator.h"</t>
+  </si>
+  <si>
+    <t>// Constructor : initialization of parameters</t>
+  </si>
+  <si>
+    <t>// Step description (tooltip of contextual menu)</t>
+  </si>
+  <si>
+    <t>// Step detailled description</t>
+  </si>
+  <si>
+    <t>// Step URL</t>
+  </si>
+  <si>
+    <t>// Step copy method</t>
+  </si>
+  <si>
+    <t>// Creation and affiliation of IN models</t>
+  </si>
+  <si>
+    <t>// Creation and affiliation of OUT models</t>
+  </si>
+  <si>
+    <t>// Semi-automatic creation of step parameters DialogBox</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,17 +314,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial Unicode MS"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -270,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -278,7 +355,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,19 +639,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="97" style="3" customWidth="1"/>
+    <col min="1" max="1" width="128" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="149" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -579,280 +659,402 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
+    <row r="60" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="57" customHeight="1"/>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>62</v>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/remplacements_v5_v6.xlsx
+++ b/remplacements_v5_v6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Z_Prog\computreev6\computreev6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFFA30C-7A74-4F16-AF58-7F926CC32A99}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DF93E8-3DF6-48B1-9C04-F60289900E19}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2070" windowWidth="13665" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -363,8 +363,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9999"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -642,7 +655,7 @@
   <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,6 +1071,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(B1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
